--- a/pred_ohlcv/54_21/2020-01-15 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WTC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-26863.15576263108</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27392.27576263107</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32171.96046263108</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27598.31856263108</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-31963.83556263108</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-33117.23526263107</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-35634.44526263107</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-36906.94526263107</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-36910.94526263107</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-37593.29336263108</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-37593.29336263108</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-38037.92326263108</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-40131.49706263108</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-38565.60556263107</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-38565.60556263107</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-39038.24576263107</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-30595.91336263107</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-35035.91336263107</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-32545.99896263107</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-32685.95896263107</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-32685.95896263107</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-44802.14666263107</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-40355.81666263107</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-57209.08136263107</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-57349.77136263107</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-62460.19066263107</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-62460.19066263107</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-60207.54486263107</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-60207.54486263107</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-63670.40456263106</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-64734.90416263106</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-64375.00416263106</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-64375.00416263106</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-66610.27106263106</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-66608.97106263106</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-63907.54346263105</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WTC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-26863.15576263108</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27392.27576263107</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32171.96046263108</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27598.31856263108</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-31963.83556263108</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-33117.23526263107</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-35634.44526263107</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-36909.44526263107</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-36906.94526263107</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-36910.94526263107</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-37593.29336263108</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-37593.29336263108</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-37593.29336263108</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-38475.12026263108</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-40131.49706263108</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-38565.60556263107</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-38565.60556263107</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-35035.91336263107</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-32545.99896263107</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-32685.95896263107</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-44802.14666263107</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-40355.81666263107</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-57209.08136263107</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-57349.77136263107</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-62460.19066263107</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-62460.19066263107</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-60207.54486263107</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-60207.54486263107</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-63670.40456263106</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-64375.00416263106</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-64375.00416263106</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-66610.27106263106</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-66608.97106263106</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-62600.93496263105</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-62585.93496263105</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-63907.54346263105</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-62498.54346263105</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-62514.54346263105</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
